--- a/ODD/test_output/Primer_order.xlsx
+++ b/ODD/test_output/Primer_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,480 +436,216 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-1</t>
+          <t>dxs_sub_933_C_T_sub-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>ATAGCTCGGCAAACCGCCGCTACTTTTCGGGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-2</t>
+          <t>dxs_sub_933_C_T_sub-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACTGTGGGTCACCAACGCGCACGGAAATAATTAGTTACGTCCGCGCGAC</t>
+          <t>GCCTAAATTTGATCCCTCCAGCGGTTGTTTGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-1</t>
+          <t>test-dxs_sub_933_C_T_sub-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-2</t>
+          <t>test-dxs_sub_933_C_T_sub-2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>GAACATGCGCGACCTGAAAG</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-1</t>
+          <t>aceE_del-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>CAACGTTATTAGATAGATAAGGAATAACCCGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-2</t>
+          <t>aceE_del-2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAACTGTGGGTCACCAACGCGCACGGAAATTTAGTTACGTCCGCGCGAC</t>
+          <t>TGATTTCGATAGCCATTATTCTTTTACCTCGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-1</t>
+          <t>test-aceE_del-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-2</t>
+          <t>test-aceE_del-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>GTCGCCTTCTACGGTGATCA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-1</t>
+          <t>pntA_promoter_sub-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>TAACCGTTCTCTTGGTATGCCAATTCGCATGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-2</t>
+          <t>pntA_promoter_sub-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACTTAGTTACGTCCGCGCGAC</t>
+          <t>GGCGTTCTAAGGTGTTTATCCCACTATCACGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-1</t>
+          <t>test-pntA_promoter_sub-1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-2</t>
+          <t>test-pntA_promoter_sub-2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>CAGCCGTATCAGCATCATTACT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-1</t>
+          <t>Cgl1452_ins-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>TTTTTGTAGACCTGGTCAGGCGTTCACATGGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-2</t>
+          <t>Cgl1452_ins-2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GAACTGTGGGTCACCAACGCGCACGGAAATTTAGTTACGTCCGCGCGAC</t>
+          <t>AGCAAAGTACGCTTTGTTCATGCCGGATGCGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-1</t>
+          <t>Cgl1452_ins-3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGACT</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-2</t>
+          <t>Cgl1452_ins-4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>AGCAAAGTACGCTTTGTTCATGCCGGATGCTTAAGCTTCAACCTCGGAGCG</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-1</t>
+          <t>test-Cgl1452_ins-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-2</t>
+          <t>test-Cgl1452_ins-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GGTCTGGCCTTCGAACTGTGGGTCACCAACTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_15to19_sub-1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_15to19_sub-2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CTTGGCTTCAGCAGGGTTTG</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins-1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins-2</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_90_ins-1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_90_ins-2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>GAATTCCAGGGGCGGGTTAAGTAAGGCGCTTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-3</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-4</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-2</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-2</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>GAATTCCAGGGGCGGGTTAAGTAAGGCGCTTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-3</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-4</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>GAATTCCAGGGGCGGGTTAAGTAAGGCGCTCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-2</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>CGTGTATCGGGCAATGGAAT</t>
         </is>
       </c>
     </row>
